--- a/biology/Botanique/Vin_d'amphore/Vin_d'amphore.xlsx
+++ b/biology/Botanique/Vin_d'amphore/Vin_d'amphore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vin_d%27amphore</t>
+          <t>Vin_d'amphore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le vin d'amphore est issu d'une vinification et/ou d'un élevage en amphore.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vin_d%27amphore</t>
+          <t>Vin_d'amphore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Amphore à vin, -200 av. J.-C., terre cuite 99x27 cm - Issue d'une épave proche de l'île de Riou (origine Grande Grèce, Campanie)
 			Amphore à vin, Ier siècle apr. J.-C., terre cuite 92x29 cm - Originaire de Vienne
-Antiquité
-Les amphores vinaires sont utilisées principalement dans le commerce pour le transport dans les civilisations grecques, romaines, gauloises.
-Époque contemporaine</t>
+</t>
         </is>
       </c>
     </row>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vin_d%27amphore</t>
+          <t>Vin_d'amphore</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fabrication</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'amphore est fabriquée à partir d'argile épurée ou d'un mélange d'argiles et de minéraux comme la silice. Il faut de l'eau pour délayer l'argile, et du bois ou un autre combustible pour la cuisson. Le plus fréquemment, c'est le tournage qui est utilisé pour la façonner.
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amphores vinaires sont utilisées principalement dans le commerce pour le transport dans les civilisations grecques, romaines, gauloises.
 </t>
         </is>
       </c>
@@ -559,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vin_d%27amphore</t>
+          <t>Vin_d'amphore</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +592,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Les différentes contenances</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une amphore de vinification a une capacité de 3 à 9 hectolitres environ, pour le transport les dimensions peuvent être réduites afin de faciliter sa manutention.
-Il existe des cuves en formes d'amphores, mais pouvant être fabriquées en béton, seule la forme reste fidèle, elles peuvent être équipées de portes et avoir une capacité bien supérieure allant jusqu'à plusieurs dizaines d'hectolitres. L'intérêt du matériau est donc annihilé, tout comme une amphore recouverte de résine, la porosité de l'argile n’étant plus présente.
+          <t>Fabrication</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amphore est fabriquée à partir d'argile épurée ou d'un mélange d'argiles et de minéraux comme la silice. Il faut de l'eau pour délayer l'argile, et du bois ou un autre combustible pour la cuisson. Le plus fréquemment, c'est le tournage qui est utilisé pour la façonner.
 </t>
         </is>
       </c>
@@ -591,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vin_d%27amphore</t>
+          <t>Vin_d'amphore</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,55 +625,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Les différentes contenances</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une amphore de vinification a une capacité de 3 à 9 hectolitres environ, pour le transport les dimensions peuvent être réduites afin de faciliter sa manutention.
+Il existe des cuves en formes d'amphores, mais pouvant être fabriquées en béton, seule la forme reste fidèle, elles peuvent être équipées de portes et avoir une capacité bien supérieure allant jusqu'à plusieurs dizaines d'hectolitres. L'intérêt du matériau est donc annihilé, tout comme une amphore recouverte de résine, la porosité de l'argile n’étant plus présente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vin_d'amphore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_d%27amphore</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Intérêt œnologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les amphores présentent des caractéristiques de capacité et de matériau proches de celles du tonneau, à la différence de ne pas conférer de tanins au vin, ni d'arômes de boisé[1]. Selon le matériau utilisé et le mode de cuisson, la porosité sera très importante comme la terre cuite à modérée comme la céramique microporeuse et jusqu'à quasi nulle pour des grès quasiment vitrifiés.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amphores présentent des caractéristiques de capacité et de matériau proches de celles du tonneau, à la différence de ne pas conférer de tanins au vin, ni d'arômes de boisé. Selon le matériau utilisé et le mode de cuisson, la porosité sera très importante comme la terre cuite à modérée comme la céramique microporeuse et jusqu'à quasi nulle pour des grès quasiment vitrifiés.
 La forme peut cependant présenter un intérêt pour la remise en suspension des lies pour les élevages sur lies, en particulier avec la forme d’œuf selon le nombre d'Or. Des partisans de la biodynamie pensent que l'absence d'angles dans le récipient évite des points de compression et de force sur le vin, ce qui affecte la stabilité de son énergie durant son élevage, cette hypothèse relève des pseudo-sciences.
 	Cuveries d'amphores enterrées
 			Amphores d'argile brute, COS, en Sicile
 			Amphores recouvertes de résine alimentaire, Frank Cornelissen, en Sicile
-Vinification
-La vinification en amphore est possible pour le vin rouge, comme pour le blanc, en vendange entière (avec les rafles) ou éraflée. Le vin orange peut également être vinifié dans ce type de récipient et lui est fréquemment associé par les producteurs.
-La durée de la vinification et de la macération peut aller de quelques jours à plusieurs mois, selon le cépage, et le type de vin recherché.
-Les amphores sont partiellement fermées pour conserver le gaz carbonique issu de la fermentation, selon le même principe que la vinification en fût[2].
-Élevage
-Les amphores peuvent servir au stockage et au transport du vin. La porosité de l'argile confère des propriétés similaires au tonneau sur le point de vue de la micro-oxygénation du vin.
-Lors de l’élevage les amphores sont fermées, hermétiquement afin de les protéger de l’air, par disques de pierre ou de métal et avec la possibilité d'ajouter un joint entre les deux pour assurer l’étanchéité.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vin_d%27amphore</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vin_d%27amphore</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Production</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un regain d'intérêt est observé durant l'époque contemporaine pour la vinification en amphore, notamment dans les zones méditerranéennes comme l'Italie , l'Espagne (vino de tinaja, vino de pitarra), la France[3],[4],[5] et le Portugal (vinho de talha)[6],[7].
-Fabricants : France (Vin et Terre), Italie (TAVA Anfore, Carbone Wine Jar, Artenova, Clayver, SIRIO Anfore), Espagne (Ceramicarles, etc.).
 </t>
         </is>
       </c>
@@ -665,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vin_d%27amphore</t>
+          <t>Vin_d'amphore</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,10 +696,123 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Intérêt œnologique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vinification en amphore est possible pour le vin rouge, comme pour le blanc, en vendange entière (avec les rafles) ou éraflée. Le vin orange peut également être vinifié dans ce type de récipient et lui est fréquemment associé par les producteurs.
+La durée de la vinification et de la macération peut aller de quelques jours à plusieurs mois, selon le cépage, et le type de vin recherché.
+Les amphores sont partiellement fermées pour conserver le gaz carbonique issu de la fermentation, selon le même principe que la vinification en fût.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vin_d'amphore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_d%27amphore</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Intérêt œnologique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Élevage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amphores peuvent servir au stockage et au transport du vin. La porosité de l'argile confère des propriétés similaires au tonneau sur le point de vue de la micro-oxygénation du vin.
+Lors de l’élevage les amphores sont fermées, hermétiquement afin de les protéger de l’air, par disques de pierre ou de métal et avec la possibilité d'ajouter un joint entre les deux pour assurer l’étanchéité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vin_d'amphore</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_d%27amphore</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un regain d'intérêt est observé durant l'époque contemporaine pour la vinification en amphore, notamment dans les zones méditerranéennes comme l'Italie , l'Espagne (vino de tinaja, vino de pitarra), la France et le Portugal (vinho de talha),.
+Fabricants : France (Vin et Terre), Italie (TAVA Anfore, Carbone Wine Jar, Artenova, Clayver, SIRIO Anfore), Espagne (Ceramicarles, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vin_d'amphore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vin_d%27amphore</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Marketing</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains vins peuvent être vendus dans des amphores de petite taille, mais cela ne doit pas être confondu avec la méthode de vinification qui peut avoir été complètement différente. C'est un aspect commercial destiné à la vente.
 </t>
